--- a/Open Door Parts List.xlsx
+++ b/Open Door Parts List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Item #</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Home Depot</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Generic-Electric-Strike-Secure-Control/dp/B00V45GWTI/ref=sr_1_1?s=hi&amp;ie=UTF8&amp;qid=1469666361&amp;sr=1-1&amp;keywords=generic+electric+strike</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -594,7 +597,7 @@
         <f>F2*E2</f>
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -650,7 +653,7 @@
         <f t="shared" si="0"/>
         <v>4.6900000000000004</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -678,8 +681,8 @@
         <f t="shared" si="0"/>
         <v>23.6</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>16</v>
+      <c r="H5" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>19</v>
@@ -709,7 +712,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -790,7 +793,7 @@
         <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -818,7 +821,7 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -838,9 +841,15 @@
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
     <hyperlink ref="H8" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId4"/>
+    <hyperlink ref="H2" r:id="rId5"/>
+    <hyperlink ref="H6" r:id="rId6"/>
+    <hyperlink ref="H9" r:id="rId7"/>
+    <hyperlink ref="H10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
